--- a/output/1Y_P17_1VAL-D.xlsx
+++ b/output/1Y_P17_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>12.3095</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>812.3807</v>
       </c>
-      <c r="G2" s="1">
-        <v>812.3807</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.088900000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.3095</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.088900000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>13.3876</v>
       </c>
+      <c r="E3" s="1">
+        <v>812.3807</v>
+      </c>
       <c r="F3" s="1">
         <v>746.9598999999999</v>
       </c>
-      <c r="G3" s="1">
-        <v>1559.3406</v>
-      </c>
       <c r="H3" s="1">
-        <v>20767.6094</v>
+        <v>10819.4484</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>12.8259</v>
+        <v>10819.4484</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.3095</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20767.6094</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0411</v>
+        <v>0.0819</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>13.3141</v>
       </c>
+      <c r="E4" s="1">
+        <v>1559.3406</v>
+      </c>
       <c r="F4" s="1">
         <v>751.0834</v>
       </c>
-      <c r="G4" s="1">
-        <v>2310.424</v>
-      </c>
       <c r="H4" s="1">
-        <v>30601.5658</v>
+        <v>20653.4656</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>12.9846</v>
+        <v>20653.4656</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>12.8259</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.6</v>
       </c>
-      <c r="L4" s="1">
-        <v>842.0439</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9157.956099999999</v>
+        <v>438.6856</v>
       </c>
       <c r="O4" s="1">
-        <v>842.0439</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31443.6097</v>
+        <v>-9561.314399999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.022</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>13.7208</v>
       </c>
+      <c r="E5" s="1">
+        <v>2310.424</v>
+      </c>
       <c r="F5" s="1">
-        <v>735.6394</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3046.0633</v>
+        <v>732.373</v>
       </c>
       <c r="H5" s="1">
-        <v>41577.5462</v>
+        <v>31536.3633</v>
       </c>
       <c r="I5" s="1">
-        <v>40093.5604</v>
+        <v>438.6856</v>
       </c>
       <c r="J5" s="1">
-        <v>13.1624</v>
+        <v>31975.0489</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30048.7428</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.0057</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10093.5604</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>748.4835</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>42326.0297</v>
+        <v>-10048.7428</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0213</v>
+        <v>0.0431</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>14.2021</v>
       </c>
+      <c r="E6" s="1">
+        <v>3042.7969</v>
+      </c>
       <c r="F6" s="1">
-        <v>710.7089999999999</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3756.7724</v>
+        <v>707.5533</v>
       </c>
       <c r="H6" s="1">
-        <v>53077.1826</v>
+        <v>42989.8524</v>
       </c>
       <c r="I6" s="1">
-        <v>50187.1209</v>
+        <v>389.9427</v>
       </c>
       <c r="J6" s="1">
-        <v>13.3591</v>
+        <v>43379.7951</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40097.4857</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.1778</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10093.5604</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>654.923</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>53732.1056</v>
+        <v>-10048.7428</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0269</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>13.9876</v>
       </c>
+      <c r="E7" s="1">
+        <v>3750.3503</v>
+      </c>
       <c r="F7" s="1">
-        <v>721.6077</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4478.3801</v>
+        <v>718.4036</v>
       </c>
       <c r="H7" s="1">
-        <v>62317.1069</v>
+        <v>52186.4988</v>
       </c>
       <c r="I7" s="1">
-        <v>60280.6813</v>
+        <v>341.1999</v>
       </c>
       <c r="J7" s="1">
-        <v>13.4604</v>
+        <v>52527.6987</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50146.2285</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.3711</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10093.5604</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>561.3626</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>62878.4695</v>
+        <v>-10048.7428</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0134</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>12.8818</v>
       </c>
+      <c r="E8" s="1">
+        <v>4468.7539</v>
+      </c>
       <c r="F8" s="1">
-        <v>783.552</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5261.9321</v>
+        <v>780.0729</v>
       </c>
       <c r="H8" s="1">
-        <v>67431.66009999999</v>
+        <v>57267.0813</v>
       </c>
       <c r="I8" s="1">
-        <v>70374.2417</v>
+        <v>292.457</v>
       </c>
       <c r="J8" s="1">
-        <v>13.3742</v>
+        <v>57559.5383</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60194.9714</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.4702</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10093.5604</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>467.8022</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67899.4623</v>
+        <v>-10048.7428</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0683</v>
+        <v>-0.0795</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>12.8509</v>
       </c>
+      <c r="E9" s="1">
+        <v>5248.8268</v>
+      </c>
       <c r="F9" s="1">
-        <v>785.4361</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6047.3682</v>
+        <v>781.9486000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>77310.7644</v>
+        <v>67102.0514</v>
       </c>
       <c r="I9" s="1">
-        <v>80467.80220000001</v>
+        <v>243.7142</v>
       </c>
       <c r="J9" s="1">
-        <v>13.3063</v>
+        <v>67345.7656</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70243.7142</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.3827</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10093.5604</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>374.2417</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>77685.0062</v>
+        <v>-10048.7428</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0028</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>13.8614</v>
       </c>
+      <c r="E10" s="1">
+        <v>6030.7754</v>
+      </c>
       <c r="F10" s="1">
-        <v>728.1776</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6775.5458</v>
+        <v>724.9443</v>
       </c>
       <c r="H10" s="1">
-        <v>93431.3881</v>
+        <v>83161.37669999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90561.36259999999</v>
+        <v>194.9714</v>
       </c>
       <c r="J10" s="1">
-        <v>13.3659</v>
+        <v>83356.3481</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80292.45699999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.3138</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10093.5604</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>280.6813</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93712.06939999999</v>
+        <v>-10048.7428</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0687</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>14.3229</v>
       </c>
+      <c r="E11" s="1">
+        <v>6755.7196</v>
+      </c>
       <c r="F11" s="1">
-        <v>704.7148999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7480.2606</v>
+        <v>701.5857999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>106583.2413</v>
+        <v>96259.5469</v>
       </c>
       <c r="I11" s="1">
-        <v>100654.923</v>
+        <v>146.2285</v>
       </c>
       <c r="J11" s="1">
-        <v>13.4561</v>
+        <v>96405.7755</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90341.19990000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.3726</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10093.5604</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>187.1209</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106770.3622</v>
+        <v>-10048.7428</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0295</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>14.2341</v>
       </c>
+      <c r="E12" s="1">
+        <v>7457.3054</v>
+      </c>
       <c r="F12" s="1">
-        <v>709.1112000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8189.3719</v>
+        <v>705.9626</v>
       </c>
       <c r="H12" s="1">
-        <v>115963.1434</v>
+        <v>105596.9362</v>
       </c>
       <c r="I12" s="1">
-        <v>110748.4835</v>
+        <v>97.48569999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>13.5234</v>
+        <v>105694.4218</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100389.9427</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.462</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10093.5604</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>93.5604</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>116056.7038</v>
+        <v>-10048.7428</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0061</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>13.7456</v>
       </c>
+      <c r="E13" s="1">
+        <v>8163.2681</v>
+      </c>
       <c r="F13" s="1">
-        <v>734.3121</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8923.683999999999</v>
+        <v>731.0516</v>
       </c>
       <c r="H13" s="1">
-        <v>122025.1316</v>
+        <v>111626.9764</v>
       </c>
       <c r="I13" s="1">
-        <v>120842.0439</v>
+        <v>48.7428</v>
       </c>
       <c r="J13" s="1">
-        <v>13.5417</v>
+        <v>111675.7192</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110438.6856</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.5287</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10093.5604</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>122025.1316</v>
+        <v>-10048.7428</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.032</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>14.5325</v>
       </c>
+      <c r="E14" s="1">
+        <v>8894.3197</v>
+      </c>
       <c r="F14" s="1">
-        <v>-8923.683999999999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-8163.2681</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128586.0687</v>
       </c>
       <c r="I14" s="1">
-        <v>120842.0439</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.5417</v>
+        <v>128586.0687</v>
       </c>
       <c r="K14" s="1">
+        <v>110438.6856</v>
+      </c>
+      <c r="L14" s="1">
+        <v>12.4168</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.75</v>
       </c>
-      <c r="L14" s="1">
-        <v>6023.4867</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>135034.0781</v>
+        <v>5510.2059</v>
       </c>
       <c r="O14" s="1">
-        <v>135034.0781</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>135034.0781</v>
+        <v>123527.3886</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0228</v>
+        <v>0.0568</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>12.3095</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>812.3807</v>
       </c>
       <c r="G2" s="1">
-        <v>812.3807</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.088900000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.3095</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.088900000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>13.3876</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>812.3807</v>
       </c>
       <c r="F3" s="1">
         <v>689.3238</v>
       </c>
       <c r="G3" s="1">
-        <v>1501.7044</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10819.4484</v>
       </c>
       <c r="I3" s="1">
-        <v>19228.3907</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>12.8044</v>
+        <v>10819.4484</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9228.3907</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.3597</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9228.3907</v>
       </c>
-      <c r="O3" s="1">
-        <v>771.6093</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20771.6093</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0413</v>
+        <v>0.0819</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>13.3141</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1501.7044</v>
       </c>
       <c r="F4" s="1">
         <v>763.3012</v>
       </c>
       <c r="G4" s="1">
-        <v>2265.0057</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>19890.0752</v>
       </c>
       <c r="I4" s="1">
-        <v>29391.0596</v>
+        <v>771.6093</v>
       </c>
       <c r="J4" s="1">
-        <v>12.9762</v>
+        <v>20661.6846</v>
       </c>
       <c r="K4" s="1">
+        <v>19391.0596</v>
+      </c>
+      <c r="L4" s="1">
+        <v>12.9127</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.6</v>
       </c>
-      <c r="L4" s="1">
-        <v>810.9204</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9351.7485</v>
+        <v>438.6856</v>
       </c>
       <c r="O4" s="1">
-        <v>1419.8608</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31419.8608</v>
+        <v>-9723.9833</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0211</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>13.7208</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2265.0057</v>
       </c>
       <c r="F5" s="1">
         <v>665.4831</v>
       </c>
       <c r="G5" s="1">
-        <v>2930.4888</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30916.4213</v>
       </c>
       <c r="I5" s="1">
-        <v>38522.0207</v>
+        <v>1047.626</v>
       </c>
       <c r="J5" s="1">
-        <v>13.1453</v>
+        <v>31964.0473</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28522.0207</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.5925</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9130.9611</v>
       </c>
-      <c r="O5" s="1">
-        <v>2288.8997</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42288.8997</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.021</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>14.2021</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2930.4888</v>
       </c>
       <c r="F6" s="1">
         <v>608.4823</v>
       </c>
       <c r="G6" s="1">
-        <v>3538.9712</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41403.118</v>
       </c>
       <c r="I6" s="1">
-        <v>47163.7478</v>
+        <v>1916.6649</v>
       </c>
       <c r="J6" s="1">
-        <v>13.327</v>
+        <v>43319.7829</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37163.7478</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>12.6818</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8641.7271</v>
       </c>
-      <c r="O6" s="1">
-        <v>3647.1726</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53647.1726</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.026</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>13.9876</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3538.9712</v>
       </c>
       <c r="F7" s="1">
         <v>772.8915</v>
       </c>
       <c r="G7" s="1">
-        <v>4311.8627</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>49245.1375</v>
       </c>
       <c r="I7" s="1">
-        <v>57974.645</v>
+        <v>3274.9378</v>
       </c>
       <c r="J7" s="1">
-        <v>13.4454</v>
+        <v>52520.0752</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47974.645</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.5561</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10810.8972</v>
       </c>
-      <c r="O7" s="1">
-        <v>2836.2754</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62836.2754</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0127</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>12.8818</v>
       </c>
       <c r="E8" s="1">
+        <v>4311.8627</v>
+      </c>
+      <c r="F8" s="1">
+        <v>967.5698</v>
+      </c>
+      <c r="G8" s="1">
         <v>70000</v>
       </c>
-      <c r="F8" s="1">
-        <v>996.466</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5308.3286</v>
-      </c>
       <c r="H8" s="1">
-        <v>68026.2314</v>
+        <v>55256.5199</v>
       </c>
       <c r="I8" s="1">
-        <v>70810.9204</v>
+        <v>2464.0406</v>
       </c>
       <c r="J8" s="1">
-        <v>13.3396</v>
+        <v>57720.5605</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60438.6856</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.0168</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-12836.2754</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>68026.2314</v>
+        <v>-12464.0406</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.066</v>
+        <v>-0.07679999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>12.8509</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>5279.4325</v>
       </c>
       <c r="F9" s="1">
         <v>778.1556</v>
       </c>
       <c r="G9" s="1">
-        <v>6086.4842</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>77810.8319</v>
+        <v>67493.32030000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80810.9204</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.2771</v>
+        <v>67493.32030000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70438.6856</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.3421</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77810.8319</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0028</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>13.8614</v>
       </c>
       <c r="E10" s="1">
+        <v>6057.5881</v>
+      </c>
+      <c r="F10" s="1">
+        <v>469.117</v>
+      </c>
+      <c r="G10" s="1">
         <v>90000</v>
       </c>
-      <c r="F10" s="1">
-        <v>440.2209</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6526.7051</v>
-      </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>83531.1106</v>
       </c>
       <c r="I10" s="1">
-        <v>86912.9978</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.3165</v>
+        <v>83531.1106</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76941.3045</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>12.7016</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-6102.0774</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>3897.9226</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93897.92260000001</v>
+        <v>-6502.6189</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0693</v>
+        <v>0.0779</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>14.3229</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6526.7051</v>
       </c>
       <c r="F11" s="1">
         <v>491.5283</v>
       </c>
       <c r="G11" s="1">
-        <v>7018.2334</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>92996.4103</v>
       </c>
       <c r="I11" s="1">
-        <v>93953.10799999999</v>
+        <v>3497.3811</v>
       </c>
       <c r="J11" s="1">
-        <v>13.387</v>
+        <v>96493.7914</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>83981.41469999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.8674</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7040.1102</v>
       </c>
-      <c r="O11" s="1">
-        <v>6857.8124</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106857.8124</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0285</v>
+        <v>0.0317</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>14.2341</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>7018.2334</v>
       </c>
       <c r="F12" s="1">
         <v>750.0185</v>
       </c>
       <c r="G12" s="1">
-        <v>7768.2519</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>99379.5882</v>
       </c>
       <c r="I12" s="1">
-        <v>104628.9462</v>
+        <v>6457.2709</v>
       </c>
       <c r="J12" s="1">
-        <v>13.4688</v>
+        <v>105836.859</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>94657.25290000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.4873</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10675.8382</v>
       </c>
-      <c r="O12" s="1">
-        <v>6181.9742</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116181.9742</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0058</v>
+        <v>-0.0062</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>13.7456</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>7768.2519</v>
       </c>
       <c r="F13" s="1">
         <v>1007.3345</v>
       </c>
       <c r="G13" s="1">
-        <v>8775.586300000001</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>106225.4064</v>
       </c>
       <c r="I13" s="1">
-        <v>118475.3627</v>
+        <v>5781.4327</v>
       </c>
       <c r="J13" s="1">
-        <v>13.5006</v>
+        <v>112006.8391</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108503.6694</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.9676</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-13846.4165</v>
       </c>
-      <c r="O13" s="1">
-        <v>2335.5577</v>
-      </c>
-      <c r="P13" s="1">
-        <v>122335.5577</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0305</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>14.5325</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8775.586300000001</v>
       </c>
       <c r="F14" s="1">
         <v>-8775.586300000001</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126869.529</v>
       </c>
       <c r="I14" s="1">
-        <v>118475.3627</v>
+        <v>1935.0162</v>
       </c>
       <c r="J14" s="1">
-        <v>13.5006</v>
+        <v>128804.5451</v>
       </c>
       <c r="K14" s="1">
+        <v>108503.6694</v>
+      </c>
+      <c r="L14" s="1">
+        <v>12.3643</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.75</v>
       </c>
-      <c r="L14" s="1">
-        <v>5923.5208</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>132793.0497</v>
+        <v>5243.57</v>
       </c>
       <c r="O14" s="1">
-        <v>135128.6074</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>135128.6074</v>
+        <v>132113.099</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0211</v>
+        <v>0.0557</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>12.3095</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>812.3807</v>
       </c>
       <c r="G2" s="1">
-        <v>812.3807</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.088900000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.3095</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.088900000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>13.3876</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>812.3807</v>
       </c>
       <c r="F3" s="1">
         <v>693.078</v>
       </c>
       <c r="G3" s="1">
-        <v>1505.4587</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10819.4484</v>
       </c>
       <c r="I3" s="1">
-        <v>19278.6512</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>12.8058</v>
+        <v>10819.4484</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9278.6512</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.4216</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9278.6512</v>
       </c>
-      <c r="O3" s="1">
-        <v>721.3488</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20771.3488</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0413</v>
+        <v>0.0819</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>13.3141</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1505.4587</v>
       </c>
       <c r="F4" s="1">
         <v>770.8909</v>
       </c>
       <c r="G4" s="1">
-        <v>2276.3496</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>19939.8004</v>
       </c>
       <c r="I4" s="1">
-        <v>29542.3694</v>
+        <v>721.3488</v>
       </c>
       <c r="J4" s="1">
-        <v>12.978</v>
+        <v>20661.1492</v>
       </c>
       <c r="K4" s="1">
+        <v>19542.3694</v>
+      </c>
+      <c r="L4" s="1">
+        <v>12.981</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.6</v>
       </c>
-      <c r="L4" s="1">
-        <v>812.9477000000001</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9450.770399999999</v>
+        <v>438.6856</v>
       </c>
       <c r="O4" s="1">
-        <v>1270.5783</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31420.8283</v>
+        <v>-9825.0326</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0211</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>13.7208</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2276.3496</v>
       </c>
       <c r="F5" s="1">
         <v>676.1913</v>
       </c>
       <c r="G5" s="1">
-        <v>2952.5408</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31071.261</v>
       </c>
       <c r="I5" s="1">
-        <v>38820.2544</v>
+        <v>896.3162</v>
       </c>
       <c r="J5" s="1">
-        <v>13.1481</v>
+        <v>31967.5772</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28820.2544</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.6607</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9277.885</v>
       </c>
-      <c r="O5" s="1">
-        <v>1992.6933</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42293.6946</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0211</v>
+        <v>0.0426</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>14.2021</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2952.5408</v>
       </c>
       <c r="F6" s="1">
         <v>621.9974</v>
       </c>
       <c r="G6" s="1">
-        <v>3574.5383</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41714.6778</v>
       </c>
       <c r="I6" s="1">
-        <v>47653.9241</v>
+        <v>1618.4312</v>
       </c>
       <c r="J6" s="1">
-        <v>13.3315</v>
+        <v>43333.109</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37653.9241</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>12.7531</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8833.6697</v>
       </c>
-      <c r="O6" s="1">
-        <v>3159.0236</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53661.5299</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0262</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>13.9876</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3574.5383</v>
       </c>
       <c r="F7" s="1">
         <v>791.5834</v>
       </c>
       <c r="G7" s="1">
-        <v>4366.1216</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>49740.0572</v>
       </c>
       <c r="I7" s="1">
-        <v>58726.2754</v>
+        <v>2784.7615</v>
       </c>
       <c r="J7" s="1">
-        <v>13.4504</v>
+        <v>52524.8188</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48726.2754</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.6315</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11072.3513</v>
       </c>
-      <c r="O7" s="1">
-        <v>2086.6723</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62841.6911</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0129</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>12.8818</v>
       </c>
       <c r="E8" s="1">
+        <v>4366.1216</v>
+      </c>
+      <c r="F8" s="1">
+        <v>909.2216</v>
+      </c>
+      <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
-      <c r="F8" s="1">
-        <v>938.2751</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5304.3967</v>
-      </c>
       <c r="H8" s="1">
-        <v>67975.84390000001</v>
+        <v>55951.8484</v>
       </c>
       <c r="I8" s="1">
-        <v>70812.9477</v>
+        <v>1712.4102</v>
       </c>
       <c r="J8" s="1">
-        <v>13.3499</v>
+        <v>57664.2586</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60438.6856</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.8426</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-12086.6723</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67975.84390000001</v>
+        <v>-11712.4102</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0668</v>
+        <v>-0.07770000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>12.8509</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>5275.3432</v>
       </c>
       <c r="F9" s="1">
         <v>778.1556</v>
       </c>
       <c r="G9" s="1">
-        <v>6082.5523</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>77760.5655</v>
+        <v>67441.042</v>
       </c>
       <c r="I9" s="1">
-        <v>80812.9477</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.286</v>
+        <v>67441.042</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70438.6856</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.3524</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77760.5655</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0028</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>13.8614</v>
       </c>
       <c r="E10" s="1">
+        <v>6053.4988</v>
+      </c>
+      <c r="F10" s="1">
+        <v>605.2748</v>
+      </c>
+      <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
-      <c r="F10" s="1">
-        <v>576.2212</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6658.7736</v>
-      </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>83474.72139999999</v>
       </c>
       <c r="I10" s="1">
-        <v>88800.18090000001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.3358</v>
+        <v>83474.72139999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78828.6418</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.022</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-7987.2332</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>2012.7668</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93833.92509999999</v>
+        <v>-8389.956200000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0692</v>
+        <v>0.0779</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>14.3229</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6658.7736</v>
       </c>
       <c r="F11" s="1">
         <v>519.494</v>
       </c>
       <c r="G11" s="1">
-        <v>7178.2676</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>94878.2012</v>
       </c>
       <c r="I11" s="1">
-        <v>96240.84209999999</v>
+        <v>1610.0438</v>
       </c>
       <c r="J11" s="1">
-        <v>13.4073</v>
+        <v>96488.245</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86269.303</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.9557</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7440.6612</v>
       </c>
-      <c r="O11" s="1">
-        <v>4572.1055</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106852.3696</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0291</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>14.2341</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>7178.2676</v>
       </c>
       <c r="F12" s="1">
         <v>787.133</v>
       </c>
       <c r="G12" s="1">
-        <v>7965.4006</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>101645.7052</v>
       </c>
       <c r="I12" s="1">
-        <v>107444.9715</v>
+        <v>4169.3826</v>
       </c>
       <c r="J12" s="1">
-        <v>13.489</v>
+        <v>105815.0878</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97473.4323</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.579</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-11204.1293</v>
       </c>
-      <c r="O12" s="1">
-        <v>3367.9762</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116159.6416</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0059</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>13.7456</v>
       </c>
       <c r="E13" s="1">
+        <v>7965.4006</v>
+      </c>
+      <c r="F13" s="1">
+        <v>943.2293</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>972.5277</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8937.9283</v>
-      </c>
       <c r="H13" s="1">
-        <v>122219.9123</v>
+        <v>108921.2773</v>
       </c>
       <c r="I13" s="1">
-        <v>120812.9477</v>
+        <v>2965.2532</v>
       </c>
       <c r="J13" s="1">
-        <v>13.5169</v>
+        <v>111886.5305</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110438.6856</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.8648</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-13367.9762</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>122219.9123</v>
+        <v>-12965.2532</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0312</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>14.5325</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8908.6299</v>
       </c>
       <c r="F14" s="1">
-        <v>-8937.9283</v>
+        <v>-8908.6299</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128792.9538</v>
       </c>
       <c r="I14" s="1">
-        <v>120812.9477</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.5169</v>
+        <v>128792.9538</v>
       </c>
       <c r="K14" s="1">
+        <v>110438.6856</v>
+      </c>
+      <c r="L14" s="1">
+        <v>12.3968</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.75</v>
       </c>
-      <c r="L14" s="1">
-        <v>6033.1016</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>135249.6241</v>
+        <v>5376.6454</v>
       </c>
       <c r="O14" s="1">
-        <v>135249.6241</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>135249.6241</v>
+        <v>134169.5992</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0229</v>
+        <v>0.0567</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>12.3095</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>812.3807</v>
       </c>
       <c r="G2" s="1">
-        <v>812.3807</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.088900000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.3095</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.088900000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>13.3876</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>812.3807</v>
       </c>
       <c r="F3" s="1">
         <v>696.8323</v>
       </c>
       <c r="G3" s="1">
-        <v>1509.213</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10819.4484</v>
       </c>
       <c r="I3" s="1">
-        <v>19328.9118</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>12.8073</v>
+        <v>10819.4484</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9328.9118</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.4834</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9328.9118</v>
       </c>
-      <c r="O3" s="1">
-        <v>671.0882</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20771.0882</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0413</v>
+        <v>0.0819</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>13.3141</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1509.213</v>
       </c>
       <c r="F4" s="1">
         <v>778.5183</v>
       </c>
       <c r="G4" s="1">
-        <v>2287.7312</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>19989.5256</v>
       </c>
       <c r="I4" s="1">
-        <v>29694.1818</v>
+        <v>671.0882</v>
       </c>
       <c r="J4" s="1">
-        <v>12.9798</v>
+        <v>20660.6138</v>
       </c>
       <c r="K4" s="1">
+        <v>19694.1818</v>
+      </c>
+      <c r="L4" s="1">
+        <v>13.0493</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.6</v>
       </c>
-      <c r="L4" s="1">
-        <v>814.975</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9550.295</v>
+        <v>438.6856</v>
       </c>
       <c r="O4" s="1">
-        <v>1120.7932</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31421.7932</v>
+        <v>-9926.5844</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0211</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>13.7208</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2287.7312</v>
       </c>
       <c r="F5" s="1">
         <v>687.0087</v>
       </c>
       <c r="G5" s="1">
-        <v>2974.7399</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31226.6161</v>
       </c>
       <c r="I5" s="1">
-        <v>39120.4907</v>
+        <v>744.5038</v>
       </c>
       <c r="J5" s="1">
-        <v>13.1509</v>
+        <v>31971.1199</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29120.4907</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.729</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9426.308999999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>1694.4843</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42298.4943</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0212</v>
+        <v>0.0427</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>14.2021</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2974.7399</v>
       </c>
       <c r="F6" s="1">
         <v>635.722</v>
       </c>
       <c r="G6" s="1">
-        <v>3610.4619</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>42028.3155</v>
       </c>
       <c r="I6" s="1">
-        <v>48149.0781</v>
+        <v>1318.1948</v>
       </c>
       <c r="J6" s="1">
-        <v>13.336</v>
+        <v>43346.5103</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38149.0781</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>12.8243</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9028.587299999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>2665.8969</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53675.947</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0263</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>13.9876</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3610.4619</v>
       </c>
       <c r="F7" s="1">
         <v>810.6454</v>
       </c>
       <c r="G7" s="1">
-        <v>4421.1073</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>50239.9386</v>
       </c>
       <c r="I7" s="1">
-        <v>59488.0619</v>
+        <v>2289.6075</v>
       </c>
       <c r="J7" s="1">
-        <v>13.4555</v>
+        <v>52529.5461</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49488.0619</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.7069</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11338.9838</v>
       </c>
-      <c r="O7" s="1">
-        <v>1326.9131</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62847.0637</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.013</v>
+        <v>-0.0153</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>12.8818</v>
       </c>
       <c r="E8" s="1">
+        <v>4421.1073</v>
+      </c>
+      <c r="F8" s="1">
+        <v>850.0848999999999</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>879.2958</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5300.4032</v>
-      </c>
       <c r="H8" s="1">
-        <v>67924.6666</v>
+        <v>56656.4904</v>
       </c>
       <c r="I8" s="1">
-        <v>70814.97500000001</v>
+        <v>950.6237</v>
       </c>
       <c r="J8" s="1">
-        <v>13.3603</v>
+        <v>57607.1141</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60438.6856</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.6705</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11326.9131</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67924.6666</v>
+        <v>-10950.6237</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.06759999999999999</v>
+        <v>-0.07870000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>12.8509</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5271.1922</v>
       </c>
       <c r="F9" s="1">
         <v>778.1556</v>
       </c>
       <c r="G9" s="1">
-        <v>6078.5588</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>77709.51119999999</v>
+        <v>67387.9757</v>
       </c>
       <c r="I9" s="1">
-        <v>80814.97500000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.2951</v>
+        <v>67387.9757</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70438.6856</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.363</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77709.51119999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0028</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>13.8614</v>
       </c>
       <c r="E10" s="1">
+        <v>6049.3478</v>
+      </c>
+      <c r="F10" s="1">
+        <v>721.4279</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>715.3984</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6793.9572</v>
-      </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>83417.48209999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90731.3985</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.3547</v>
+        <v>83417.48209999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80438.6856</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.2971</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-9916.423500000001</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>83.5765</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93768.8492</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.06909999999999999</v>
+        <v>0.0779</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>14.3229</v>
       </c>
       <c r="E11" s="1">
+        <v>6770.7757</v>
+      </c>
+      <c r="F11" s="1">
+        <v>571.8492</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>548.6677</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7342.6249</v>
-      </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>96474.07460000001</v>
       </c>
       <c r="I11" s="1">
-        <v>98589.9115</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.4271</v>
+        <v>96474.07460000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88629.2248</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.09</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-7858.513</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>2225.0635</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106847.1889</v>
+        <v>-8190.5392</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0297</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>14.2341</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>7342.6249</v>
       </c>
       <c r="F12" s="1">
         <v>825.9283</v>
       </c>
       <c r="G12" s="1">
-        <v>8168.5532</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>103973.0374</v>
       </c>
       <c r="I12" s="1">
-        <v>110346.2569</v>
+        <v>1809.4608</v>
       </c>
       <c r="J12" s="1">
-        <v>13.5087</v>
+        <v>105782.4981</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100385.5702</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.6716</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-11756.3454</v>
       </c>
-      <c r="O12" s="1">
-        <v>468.7181</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116137.0648</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0061</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>13.7456</v>
       </c>
       <c r="E13" s="1">
+        <v>8168.5532</v>
+      </c>
+      <c r="F13" s="1">
+        <v>731.3697</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>761.605</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8930.1582</v>
-      </c>
       <c r="H13" s="1">
-        <v>122113.6623</v>
+        <v>111699.2467</v>
       </c>
       <c r="I13" s="1">
-        <v>120814.975</v>
+        <v>53.1154</v>
       </c>
       <c r="J13" s="1">
-        <v>13.5289</v>
+        <v>111752.3621</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110438.6856</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.52</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10468.7181</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>122113.6623</v>
+        <v>-10053.1154</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0319</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>14.5325</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8899.9229</v>
       </c>
       <c r="F14" s="1">
-        <v>-8930.1582</v>
+        <v>-8899.9229</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128667.075</v>
       </c>
       <c r="I14" s="1">
-        <v>120814.975</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.5289</v>
+        <v>128667.075</v>
       </c>
       <c r="K14" s="1">
+        <v>110438.6856</v>
+      </c>
+      <c r="L14" s="1">
+        <v>12.4089</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.75</v>
       </c>
-      <c r="L14" s="1">
-        <v>6027.8568</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>135132.047</v>
+        <v>5513.7734</v>
       </c>
       <c r="O14" s="1">
-        <v>135132.047</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>135132.047</v>
+        <v>134180.8484</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0228</v>
+        <v>0.0568</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>12.3095</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>812.3807</v>
       </c>
       <c r="G2" s="1">
-        <v>812.3807</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.088900000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.3095</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.088900000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>13.3876</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>812.3807</v>
       </c>
       <c r="F3" s="1">
         <v>700.5865</v>
       </c>
       <c r="G3" s="1">
-        <v>1512.9672</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10819.4484</v>
       </c>
       <c r="I3" s="1">
-        <v>19379.1723</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>12.8087</v>
+        <v>10819.4484</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9379.1723</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.5453</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9379.1723</v>
       </c>
-      <c r="O3" s="1">
-        <v>620.8277</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20770.8277</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0412</v>
+        <v>0.0819</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>13.3141</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1512.9672</v>
       </c>
       <c r="F4" s="1">
         <v>786.1834</v>
       </c>
       <c r="G4" s="1">
-        <v>2299.1506</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20039.2508</v>
       </c>
       <c r="I4" s="1">
-        <v>29846.4968</v>
+        <v>620.8277</v>
       </c>
       <c r="J4" s="1">
-        <v>12.9815</v>
+        <v>20660.0785</v>
       </c>
       <c r="K4" s="1">
+        <v>19846.4968</v>
+      </c>
+      <c r="L4" s="1">
+        <v>13.1176</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.6</v>
       </c>
-      <c r="L4" s="1">
-        <v>817.0023</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9650.322200000001</v>
+        <v>438.6856</v>
       </c>
       <c r="O4" s="1">
-        <v>970.5055</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31422.7555</v>
+        <v>-10028.6389</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0212</v>
+        <v>-0.0077</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>13.7208</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2299.1506</v>
       </c>
       <c r="F5" s="1">
         <v>697.936</v>
       </c>
       <c r="G5" s="1">
-        <v>2997.0866</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31382.4863</v>
       </c>
       <c r="I5" s="1">
-        <v>39422.7372</v>
+        <v>592.1888</v>
       </c>
       <c r="J5" s="1">
-        <v>13.1537</v>
+        <v>31974.6751</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29422.7372</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.7972</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9576.2405</v>
       </c>
-      <c r="O5" s="1">
-        <v>1394.2651</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42303.2988</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0213</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>14.2021</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2997.0866</v>
       </c>
       <c r="F6" s="1">
         <v>649.6582</v>
       </c>
       <c r="G6" s="1">
-        <v>3646.7448</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42344.0388</v>
       </c>
       <c r="I6" s="1">
-        <v>48649.2475</v>
+        <v>1015.9483</v>
       </c>
       <c r="J6" s="1">
-        <v>13.3405</v>
+        <v>43359.9872</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38649.2475</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>12.8956</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9226.510200000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>2167.7548</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53690.4241</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0265</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>13.9876</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3646.7448</v>
       </c>
       <c r="F7" s="1">
         <v>830.0832</v>
       </c>
       <c r="G7" s="1">
-        <v>4476.828</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>50744.8186</v>
       </c>
       <c r="I7" s="1">
-        <v>60260.1192</v>
+        <v>1789.4381</v>
       </c>
       <c r="J7" s="1">
-        <v>13.4604</v>
+        <v>52534.2567</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50260.1192</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.7822</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11610.8717</v>
       </c>
-      <c r="O7" s="1">
-        <v>556.8831</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62852.3924</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0132</v>
+        <v>-0.0155</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>12.8818</v>
       </c>
       <c r="E8" s="1">
+        <v>4476.828</v>
+      </c>
+      <c r="F8" s="1">
+        <v>790.1509</v>
+      </c>
+      <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>819.5193</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5296.3473</v>
-      </c>
       <c r="H8" s="1">
-        <v>67872.69</v>
+        <v>57370.5508</v>
       </c>
       <c r="I8" s="1">
-        <v>70817.00229999999</v>
+        <v>178.5664</v>
       </c>
       <c r="J8" s="1">
-        <v>13.3709</v>
+        <v>57549.1172</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60438.6856</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.5003</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10556.8831</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67872.69</v>
+        <v>-10178.5664</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0684</v>
+        <v>-0.07969999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>12.8509</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5266.9789</v>
       </c>
       <c r="F9" s="1">
         <v>778.1556</v>
       </c>
       <c r="G9" s="1">
-        <v>6074.5029</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>77657.65949999999</v>
+        <v>67334.1121</v>
       </c>
       <c r="I9" s="1">
-        <v>80817.00229999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.3043</v>
+        <v>67334.1121</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70438.6856</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.3736</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77657.65949999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0028</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>13.8614</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>6045.1346</v>
       </c>
       <c r="F10" s="1">
         <v>721.4279</v>
       </c>
       <c r="G10" s="1">
-        <v>6795.9307</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>93712.4866</v>
+        <v>83359.3829</v>
       </c>
       <c r="I10" s="1">
-        <v>90817.00229999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.3634</v>
+        <v>83359.3829</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80438.6856</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.3064</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93712.4866</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.06909999999999999</v>
+        <v>0.0779</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>14.3229</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6766.5624</v>
       </c>
       <c r="F11" s="1">
         <v>698.1826</v>
       </c>
       <c r="G11" s="1">
-        <v>7494.1133</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>106780.6234</v>
+        <v>96414.0411</v>
       </c>
       <c r="I11" s="1">
-        <v>100817.0023</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.4528</v>
+        <v>96414.0411</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90438.6856</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.3655</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106780.6234</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0296</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>14.2341</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>7464.745</v>
       </c>
       <c r="F12" s="1">
         <v>702.5383</v>
       </c>
       <c r="G12" s="1">
-        <v>8196.651599999999</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>116066.2262</v>
+        <v>105702.2826</v>
       </c>
       <c r="I12" s="1">
-        <v>110817.0023</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.5198</v>
+        <v>105702.2826</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100438.6856</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.4551</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116066.2262</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0061</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>13.7456</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>8167.2833</v>
       </c>
       <c r="F13" s="1">
         <v>727.5055</v>
       </c>
       <c r="G13" s="1">
-        <v>8924.1571</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>122031.6021</v>
+        <v>111681.8821</v>
       </c>
       <c r="I13" s="1">
-        <v>120817.0023</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.5382</v>
+        <v>111681.8821</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110438.6856</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.5221</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>122031.6021</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.032</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>14.5325</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8894.7888</v>
       </c>
       <c r="F14" s="1">
-        <v>-8924.1571</v>
+        <v>-8894.7888</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128592.8517</v>
       </c>
       <c r="I14" s="1">
-        <v>120817.0023</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.5382</v>
+        <v>128592.8517</v>
       </c>
       <c r="K14" s="1">
+        <v>110438.6856</v>
+      </c>
+      <c r="L14" s="1">
+        <v>12.4161</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.75</v>
       </c>
-      <c r="L14" s="1">
-        <v>6023.8061</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>135041.2384</v>
+        <v>5512.9162</v>
       </c>
       <c r="O14" s="1">
-        <v>135041.2384</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>135041.2384</v>
+        <v>134105.7679</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0228</v>
+        <v>0.0568</v>
       </c>
     </row>
   </sheetData>
@@ -4479,8 +4452,8 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>14.4933</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5417</v>
+        <v>12.4168</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5006</v>
+        <v>12.3643</v>
       </c>
       <c r="E3" s="1">
-        <v>13.5169</v>
+        <v>12.3968</v>
       </c>
       <c r="F3" s="1">
-        <v>13.5289</v>
+        <v>12.4089</v>
       </c>
       <c r="G3" s="1">
-        <v>13.5382</v>
+        <v>12.4161</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1798</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1097</v>
+        <v>0.1777</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1104</v>
+        <v>0.1801</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1112</v>
+        <v>0.1799</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1102</v>
+        <v>0.1787</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1093</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1595</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1199</v>
+        <v>0.159</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1175</v>
+        <v>0.1561</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1185</v>
+        <v>0.1573</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1194</v>
+        <v>0.1584</v>
       </c>
       <c r="G5" s="3">
-        <v>0.12</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>0.7453</v>
+        <v>0.9898</v>
       </c>
       <c r="D6" s="4">
-        <v>0.7668</v>
+        <v>1.0238</v>
       </c>
       <c r="E6" s="4">
-        <v>0.7665999999999999</v>
+        <v>1.0142</v>
       </c>
       <c r="F6" s="4">
-        <v>0.7527</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>0.7413999999999999</v>
+        <v>0.9901</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2405</v>
+        <v>0.0549</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2507</v>
+        <v>0.2313</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2491</v>
+        <v>0.23</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2442</v>
+        <v>0.2276</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2412</v>
+        <v>0.2253</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6865.5306</v>
+        <v>5948.8915</v>
       </c>
       <c r="D8" s="1">
-        <v>6734.4412</v>
+        <v>5682.2556</v>
       </c>
       <c r="E8" s="1">
-        <v>6846.0493</v>
+        <v>5815.331</v>
       </c>
       <c r="F8" s="1">
-        <v>6842.8318</v>
+        <v>5952.459</v>
       </c>
       <c r="G8" s="1">
-        <v>6840.8084</v>
+        <v>5951.6018</v>
       </c>
     </row>
   </sheetData>
